--- a/src/test/resources/demoQAFormData/formDetails.xlsx
+++ b/src/test/resources/demoQAFormData/formDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Temu_Automation\QA_Engineer_Assignment\src\test\resources\demoQAFormData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18052140-7F29-4CB4-87A9-4B3836E0331E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331C79A-F88F-4A3A-BC8F-2745BE0582DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>Record Type</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Sports, Reading</t>
   </si>
   <si>
-    <t>photo_j.jpg</t>
-  </si>
-  <si>
     <t>123 Main St, Apt 4B</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Reading, Music</t>
   </si>
   <si>
-    <t>profile_a.png</t>
-  </si>
-  <si>
     <t>789 Oak Ave, Suite 10</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Sports</t>
   </si>
   <si>
-    <t>raj_p.jpeg</t>
-  </si>
-  <si>
     <t>456 Elm Rd, House 3</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>Music</t>
   </si>
   <si>
-    <t>p_v.webp</t>
-  </si>
-  <si>
     <t>P.O. Box 99, City Center</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>Sports, Reading, Music</t>
   </si>
   <si>
-    <t>z_k.png</t>
-  </si>
-  <si>
     <t>808 Mountain View</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>mira_sh.jpg</t>
-  </si>
-  <si>
     <t>Flat 501, Silicon Towers</t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>History</t>
   </si>
   <si>
-    <t>o_k.png</t>
-  </si>
-  <si>
     <t>10 Downing Street</t>
   </si>
   <si>
@@ -260,9 +239,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>t_s.jpeg</t>
-  </si>
-  <si>
     <t>22/A Nehru Marg</t>
   </si>
   <si>
@@ -281,9 +257,6 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>l_g.jpg</t>
-  </si>
-  <si>
     <t>East Block, Office 4</t>
   </si>
   <si>
@@ -305,9 +278,6 @@
     <t>Music, Sports</t>
   </si>
   <si>
-    <t>n_r.png</t>
-  </si>
-  <si>
     <t>909 Beach Road</t>
   </si>
   <si>
@@ -429,6 +399,15 @@
   </si>
   <si>
     <t>1 May 1999</t>
+  </si>
+  <si>
+    <t>src/test/resources/personImages/1.jpeg</t>
+  </si>
+  <si>
+    <t>src/test/resources/personImages/2.jpeg</t>
+  </si>
+  <si>
+    <t>src/test/resources/personImages/3.jpeg</t>
   </si>
 </sst>
 </file>
@@ -710,12 +689,14 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="26.08984375" customWidth="1"/>
     <col min="7" max="7" width="20.90625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,28 +763,28 @@
         <v>9876543210</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,43 +792,43 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>1234567890</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -870,28 +851,28 @@
         <v>5551112222</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,43 +880,43 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
         <v>9998888</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,13 +924,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -958,28 +939,28 @@
         <v>1122334455</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,43 +968,43 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>6789012345</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,13 +1012,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -1046,28 +1027,28 @@
         <v>5050505050</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,43 +1056,43 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1">
         <v>9988776655</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -1134,28 +1115,28 @@
         <v>4433221100</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1163,145 +1144,145 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
         <v>7766554433</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1">
         <v>12345</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -1310,130 +1291,130 @@
         <v>98765432101</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>1234567890</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F16" s="1">
         <v>9999999999</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -1442,28 +1423,28 @@
         <v>1111111111</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
